--- a/contents/tables/table5_reproduced.xlsx
+++ b/contents/tables/table5_reproduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dalu-my.sharepoint.com/personal/ku753523_dal_ca/Documents/COURSES/CSCI 6055 - Research Methods &amp; Statistics/Research-Methodology-and-Stats/contents/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6677A3D1-3064-4A64-B943-1AAD0D357A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5737F87E-CF92-49F5-86B1-BB15895F77AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{F4447861-35C2-464D-8D72-EE4DF6982498}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{A93ABBAA-0954-4730-8CA6-76DB3E0FE494}"/>
   </bookViews>
   <sheets>
     <sheet name="table5_reproduced" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6CD81-38D0-42AE-914D-03559368FD43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62829F2C-D5C9-40E8-B7D1-55A3AC8BF877}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1003,25 +1003,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>0.11600000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D2" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H2" s="1">
         <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.8E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7.8E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1029,25 +1029,25 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F3" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1055,25 +1055,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="D4" s="1">
-        <v>-6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>0.13500000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.249</v>
       </c>
       <c r="H4" s="1">
-        <v>0.122</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1081,25 +1081,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H5" s="1">
         <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1107,25 +1107,25 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>0.1</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.11700000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G6" s="1">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1159,25 +1159,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G8" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1185,25 +1185,25 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>2.7E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>6.2E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.183</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="G9" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1214,22 +1214,22 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H10" s="1">
         <v>1.9E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,25 +1237,25 @@
         <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>0.03</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>0.107</v>
       </c>
       <c r="D11" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="G11" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1263,25 +1263,25 @@
         <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1289,25 +1289,25 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>0.10100000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>0.11899999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="F13" s="1">
-        <v>0.127</v>
+        <v>0.123</v>
       </c>
       <c r="G13" s="1">
-        <v>0.123</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>0.121</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1315,22 +1315,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="F14" s="1">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="G14" s="1">
-        <v>0.18</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H14" s="1">
         <v>0.06</v>
